--- a/20170430-mnpollv3-senators/builds/development/data/_raw/mnpoll.xlsx
+++ b/20170430-mnpollv3-senators/builds/development/data/_raw/mnpoll.xlsx
@@ -874,8 +874,8 @@
   <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="A1:AB131"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -10797,7 +10797,7 @@
         <v>63</v>
       </c>
       <c r="H116">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>29</v>
